--- a/files/QQFlac.xlsx
+++ b/files/QQFlac.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VMware\shareds\t\pyx_scrapy\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imake\Desktop\v\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19230" windowHeight="6675"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13530"/>
   </bookViews>
   <sheets>
     <sheet name="匹配结果" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E34"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -424,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>727876</v>
+        <v>8156430</v>
       </c>
     </row>
   </sheetData>
